--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value402.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value402.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.207060169323386</v>
+        <v>3.353260278701782</v>
       </c>
       <c r="B1">
-        <v>1.473514716794769</v>
+        <v>2.559735298156738</v>
       </c>
       <c r="C1">
-        <v>2.033995051212167</v>
+        <v>2.013429403305054</v>
       </c>
       <c r="D1">
-        <v>3.813193420572657</v>
+        <v>1.902454018592834</v>
       </c>
       <c r="E1">
-        <v>1.16506439929857</v>
+        <v>1.699438452720642</v>
       </c>
     </row>
   </sheetData>
